--- a/story音檔/story.xlsx
+++ b/story音檔/story.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github 專用\Story\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github 專用\Story\Story-reading\story音檔\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBEA298-FD94-422D-8DA8-94386D60BE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FE2881-BEA6-4E68-96E2-06249874F2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>分類</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +62,6 @@
     <t>I had a minor bike accident recently. A car suddenly came out from the sidewalk, and I had to brake hard to avoid it. I ended up skidding and falling. I was bleeding a lot, so I asked the driver to call an ambulance. I got a few stitches at the ER. Luckily, the wounds have mostly healed now, but I sprained my wrist and my knee still hurts a bit. I’m doing some rehab at the moment.
 I also went to the police station to check the CCTV footage to understand what happened during the accident. We gave our statements and are now waiting for the initial assessment of the accident. Responsibility for the incident still needs to be determined.
 In Taiwan, the law requires drivers to have third-party insurance, which means I may be able to ask the driver to cover my medical expenses related to the accident. I think most of the fees will be paid by the driver's insurance company.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -438,11 +434,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
